--- a/DungeonDrafters_CardsChecklist.xlsx
+++ b/DungeonDrafters_CardsChecklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540CD16-0D38-4A6B-A42A-16CF5DC7194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A51385-67E4-4CFD-903F-92A5F5589B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
     <t>Wiki: https://dungeondrafters.wiki.gg/wiki/Boosters</t>
   </si>
   <si>
-    <t xml:space="preserve">Project: </t>
+    <t>Project: https://github.com/return55/DungeonDraftersBoosters</t>
   </si>
 </sst>
 </file>
@@ -27607,7 +27607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33544,7 +33546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -33912,7 +33914,7 @@
       <formula>NOT(ISERROR(SEARCH("x",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1048576 H1">
+  <conditionalFormatting sqref="H1 G2:G1048576">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",G1)))</formula>
     </cfRule>
